--- a/Unit_01/Assignment/Assignment_01.xlsx
+++ b/Unit_01/Assignment/Assignment_01.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73434202-6A22-4EED-ABD8-DCE09F4E1D5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0FF7AE-7156-4AEB-A1F5-36AAF4798F41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30855" yWindow="150" windowWidth="26715" windowHeight="23130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30855" yWindow="150" windowWidth="26715" windowHeight="23130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SteelCo" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,6 @@
     <sheet name="Furniture Answer" sheetId="5" r:id="rId3"/>
     <sheet name="Furniture Sensitivity" sheetId="6" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BaseTax">#REF!</definedName>
     <definedName name="BracketFloor">#REF!</definedName>
@@ -504,7 +501,7 @@
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -797,15 +794,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="6"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -851,9 +842,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="8" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -862,16 +850,25 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
@@ -997,19 +994,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Flair Furniture"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1277,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,47 +1278,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E4">
@@ -1355,12 +1339,12 @@
       <c r="J4">
         <v>28</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="36">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E5">
@@ -1381,102 +1365,102 @@
       <c r="J5">
         <v>30</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="36">
         <v>300</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32" t="s">
+      <c r="E10" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32" t="s">
+      <c r="H10" s="41"/>
+      <c r="I10" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="32"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E11" s="35">
+      <c r="E11" s="32">
         <v>400</v>
       </c>
-      <c r="F11" s="35">
-        <v>0</v>
-      </c>
-      <c r="G11" s="35">
+      <c r="F11" s="32">
+        <v>0</v>
+      </c>
+      <c r="G11" s="32">
         <v>117.64705882352938</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="32">
         <v>382.35294117647067</v>
       </c>
-      <c r="I11" s="35">
-        <v>0</v>
-      </c>
-      <c r="J11" s="35">
+      <c r="I11" s="32">
+        <v>0</v>
+      </c>
+      <c r="J11" s="32">
         <v>300</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="4"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
+      <c r="C12" s="3"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="33">
         <f>E4</f>
         <v>10</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="33">
         <f>E5</f>
         <v>12</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="33">
         <f>G4</f>
         <v>11</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="33">
         <f>G5</f>
         <v>9</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="33">
         <f>I4</f>
         <v>14</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="33">
         <f>I5</f>
         <v>10</v>
       </c>
       <c r="L13" t="s">
         <v>112</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="30">
         <f>SUMPRODUCT(E13:J13,E11:J11)</f>
         <v>11735.294117647059</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1499,15 +1483,15 @@
       <c r="J16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="34" t="s">
         <v>119</v>
       </c>
       <c r="E17" s="1">
@@ -1528,14 +1512,14 @@
       <c r="J17" s="1">
         <v>0</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="31">
         <f>SUMPRODUCT(E17:J17,E$11:J$11)</f>
         <v>10588.235294117647</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N17" s="31">
         <f>O17*P17</f>
         <v>12000</v>
       </c>
@@ -1545,12 +1529,12 @@
       <c r="P17">
         <v>60</v>
       </c>
-      <c r="Q17" s="42" t="s">
+      <c r="Q17" s="37" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D18" s="38"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="1">
         <v>0</v>
       </c>
@@ -1569,14 +1553,14 @@
       <c r="J18" s="1">
         <v>30</v>
       </c>
-      <c r="L18" s="34">
+      <c r="L18" s="31">
         <f>SUMPRODUCT(E18:J18,E$11:J$11)</f>
         <v>15882.352941176472</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="M18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="34">
+      <c r="N18" s="31">
         <f>O18*P18</f>
         <v>18000</v>
       </c>
@@ -1586,12 +1570,12 @@
       <c r="P18">
         <v>60</v>
       </c>
-      <c r="Q18" s="42" t="s">
+      <c r="Q18" s="37" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="34" t="s">
         <v>118</v>
       </c>
       <c r="E19" s="1">
@@ -1612,19 +1596,19 @@
       <c r="J19" s="1">
         <v>0</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="31">
         <f>SUMPRODUCT(E19:J19,E$11:J$11)</f>
         <v>400</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N19" s="34">
+      <c r="N19" s="31">
         <v>400</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D20" s="38"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="1">
         <v>0</v>
       </c>
@@ -1643,19 +1627,19 @@
       <c r="J20" s="1">
         <v>0</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="31">
         <f>SUMPRODUCT(E20:J20,E$11:J$11)</f>
         <v>500.00000000000006</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N20" s="34">
+      <c r="N20" s="31">
         <v>500</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D21" s="38"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="1">
         <v>0</v>
       </c>
@@ -1674,19 +1658,19 @@
       <c r="J21" s="1">
         <v>1</v>
       </c>
-      <c r="L21" s="34">
-        <f t="shared" ref="L19:L22" si="0">SUMPRODUCT(E21:J21,E$11:J$11)</f>
+      <c r="L21" s="31">
+        <f t="shared" ref="L21" si="0">SUMPRODUCT(E21:J21,E$11:J$11)</f>
         <v>300</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="34">
+      <c r="N21" s="31">
         <v>300</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="34" t="s">
         <v>121</v>
       </c>
       <c r="E22" s="1">
@@ -1707,17 +1691,17 @@
       <c r="J22" s="1">
         <v>1</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="31">
         <f>SUMPRODUCT(E22:J22,E$11:J$11)</f>
         <v>700</v>
       </c>
-      <c r="M22" s="37" t="s">
+      <c r="M22" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="34"/>
+      <c r="N22" s="31"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D23" s="38"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="1">
         <v>0</v>
       </c>
@@ -1736,15 +1720,15 @@
       <c r="J23" s="1">
         <v>0</v>
       </c>
-      <c r="L23" s="34">
+      <c r="L23" s="31">
         <f>SUMPRODUCT(E23:J23,E$11:J$11)</f>
         <v>500.00000000000006</v>
       </c>
-      <c r="M23" s="37"/>
-      <c r="N23" s="34"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="31"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="34" t="s">
         <v>124</v>
       </c>
       <c r="E24" s="1">
@@ -1765,11 +1749,11 @@
       <c r="J24" s="1">
         <v>0</v>
       </c>
-      <c r="L24" s="40">
+      <c r="L24" s="35">
         <f>SUMPRODUCT(E24:J24,E$11:J$11)/N17</f>
         <v>0.88235294117647056</v>
       </c>
-      <c r="M24" s="39" t="s">
+      <c r="M24" s="40" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1792,11 +1776,11 @@
       <c r="J25" s="1">
         <v>30</v>
       </c>
-      <c r="L25" s="40">
+      <c r="L25" s="35">
         <f>SUMPRODUCT(E25:J25,E$11:J$11)/N18</f>
         <v>0.88235294117647067</v>
       </c>
-      <c r="M25" s="37"/>
+      <c r="M25" s="39"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E26" s="1"/>
@@ -1848,15 +1832,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="M22:M23"/>
     <mergeCell ref="M24:M25"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1867,302 +1851,302 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726BEA6E-7A25-4673-B49E-4976B877A82A}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="11"/>
-    <col min="5" max="5" width="9.140625" style="12"/>
-    <col min="6" max="6" width="8.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="11"/>
-    <col min="12" max="12" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="50.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="9"/>
+    <col min="5" max="5" width="9.140625" style="10"/>
+    <col min="6" max="6" width="8.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" style="9"/>
+    <col min="12" max="12" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="21">
         <v>320</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="22">
         <v>360</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="23">
         <f>B3+C3</f>
         <v>680</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <f>SUMPRODUCT(B4:C4,B3:C3)</f>
         <v>4040</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="9" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="25">
         <v>7</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <v>5</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="M4" s="11" t="s">
+      <c r="D4" s="10"/>
+      <c r="M4" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="M5" s="11" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="M5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="L6" s="10" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="L6" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>3</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>4</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <f>SUMPRODUCT(C8:D8,B$3:C$3)</f>
         <v>2400</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="13">
         <v>2400</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>2</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>1</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <f>SUMPRODUCT(C9:D9,B$3:C$3)</f>
         <v>1000</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="13">
         <v>1000</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
         <f>SUMPRODUCT(C10:D10,B$3:C$3)</f>
         <v>320</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="13">
         <v>100</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
         <v>1</v>
       </c>
-      <c r="F11" s="15">
-        <f t="shared" ref="F10:F11" si="0">SUMPRODUCT(C11:D11,B$3:C$3)</f>
+      <c r="F11" s="13">
+        <f t="shared" ref="F11" si="0">SUMPRODUCT(C11:D11,B$3:C$3)</f>
         <v>360</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="13">
         <v>450</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H12" s="14"/>
-      <c r="M12" s="11" t="s">
+      <c r="H12" s="12"/>
+      <c r="M12" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="M19" s="11" t="s">
+      <c r="M19" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="M22" s="11" t="s">
+      <c r="M22" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="M23" s="11" t="s">
+      <c r="M23" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="M24" s="11" t="s">
+      <c r="M24" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="M25" s="11" t="s">
+      <c r="M25" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="M26" s="11" t="s">
+      <c r="M26" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="M27" s="11" t="s">
+      <c r="M27" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2192,50 +2176,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2255,30 +2239,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="18">
         <v>2950</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="18">
         <v>4040</v>
       </c>
     </row>
@@ -2288,53 +2272,53 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="27">
         <v>100</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="27">
         <v>320</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="28">
         <v>450</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="28">
         <v>360</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2344,102 +2328,102 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="27">
         <v>320</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="27">
         <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="27">
         <v>360</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="17">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="27">
         <v>2400</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="28">
         <v>1000</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2467,17 +2451,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2487,90 +2471,90 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="17">
         <v>320</v>
       </c>
-      <c r="E9" s="19">
-        <v>0</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
         <v>7</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <v>3.0000000000000004</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <v>3.2499999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>360</v>
       </c>
-      <c r="E10" s="17">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17">
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
         <v>5</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="15">
         <v>4.3333333333333321</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="15">
         <v>1.5000000000000002</v>
       </c>
     </row>
@@ -2580,136 +2564,136 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="17">
         <v>320</v>
       </c>
-      <c r="E15" s="19">
-        <v>0</v>
-      </c>
-      <c r="F15" s="19">
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
         <v>100</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="17">
         <v>220</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <v>1E+30</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="17">
         <v>360</v>
       </c>
-      <c r="E16" s="19">
-        <v>0</v>
-      </c>
-      <c r="F16" s="19">
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
         <v>450</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="17">
         <v>1E+30</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="17">
         <v>2400</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="17">
         <v>0.60000000000000009</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="17">
         <v>2400</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="17">
         <v>225</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="17">
         <v>900</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="15">
         <v>1000</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>2.5999999999999996</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="15">
         <v>1000</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="15">
         <v>599.99999999999989</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="15">
         <v>149.99999999999997</v>
       </c>
     </row>
